--- a/report/No9_機能確認結合テスト結果.xlsx
+++ b/report/No9_機能確認結合テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3271353C-9C51-4064-A8B8-62F42447CAD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66DA1AF-887D-4E62-823B-106C1016E68F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,50 +367,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>163574</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>29393</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E85DFEDE-F4CE-4EB7-9150-402759F3CE71}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5238750" y="13201650"/>
-          <a:ext cx="11812649" cy="5858693"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -436,7 +392,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -445,6 +401,50 @@
         <a:xfrm>
           <a:off x="1114425" y="1266825"/>
           <a:ext cx="3972479" cy="1752845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>154049</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>10053</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F4718B-E015-453A-A435-B95E0354C918}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="13201650"/>
+          <a:ext cx="11812649" cy="3781953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -548,50 +548,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>68312</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>19866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB8EF657-E189-421B-9A9A-A1BD919A72A5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5229225" y="10629900"/>
-          <a:ext cx="11726912" cy="5849166"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -617,7 +573,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -634,6 +590,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>106417</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>29105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6175CD73-BF6F-478A-956B-ECD741F388EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="10458450"/>
+          <a:ext cx="11765017" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -642,22 +642,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>334569</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>730</xdr:rowOff>
+      <xdr:colOff>506044</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>48350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{700016B5-C57C-48BB-BB05-F37C3E99F3C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16664517-ED6D-4DBC-AB74-345F203E62C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -673,52 +673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1123950" y="1457325"/>
-          <a:ext cx="8554644" cy="5229955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>125468</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>124415</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D4DB0A-4C77-480C-8C64-7B75524141E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1123950" y="7038975"/>
-          <a:ext cx="11774543" cy="4229690"/>
+          <a:off x="1114425" y="1371600"/>
+          <a:ext cx="8735644" cy="5191850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -736,16 +692,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>401925</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>86263</xdr:rowOff>
+      <xdr:colOff>487661</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>162450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3688504D-A27D-405F-8545-DEB1A8A75906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F65BF2-53EC-496A-88F4-07D484D7E3AF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -754,7 +710,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -762,7 +718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1114425" y="11487150"/>
-          <a:ext cx="13432125" cy="3858163"/>
+          <a:ext cx="13517861" cy="3762900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -780,16 +736,60 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>440030</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>162474</xdr:rowOff>
+      <xdr:colOff>459082</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>152924</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C08BA7A-008C-4807-BC1A-311E7C69BCB9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F011299B-498C-4C0B-B494-D5C218A55B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="15601950"/>
+          <a:ext cx="13489282" cy="3753374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>459082</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>19579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B3F1959-59D3-456E-A256-0F512F2A9172}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,8 +805,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1114425" y="15601950"/>
-          <a:ext cx="13470230" cy="3934374"/>
+          <a:off x="1114425" y="6858000"/>
+          <a:ext cx="13489282" cy="3791479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1141,9 +1141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641AE875-9B49-45D2-827D-6CDD1BABF43D}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1155,7 +1153,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1207,7 +1205,7 @@
         <v>41487</v>
       </c>
       <c r="D22" s="2">
-        <v>41263</v>
+        <v>41233</v>
       </c>
       <c r="E22" s="2">
         <v>41963</v>
@@ -1245,9 +1243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D0BD96-90B2-440D-A1BA-D0545B536862}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1259,7 +1255,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1348,9 +1344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{289F91FB-2912-4913-BE1C-DF69A76458D6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1359,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
-        <v>45432</v>
+        <v>45433</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
